--- a/Example.xlsx
+++ b/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="30">
   <si>
     <t xml:space="preserve">City</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Town</t>
   </si>
   <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
     <t xml:space="preserve">Occurrence</t>
   </si>
   <si>
@@ -64,10 +67,13 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">서울시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도봉구</t>
+    <t xml:space="preserve">경기도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수원시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기인재개발원</t>
   </si>
   <si>
     <t xml:space="preserve">김</t>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">최</t>
+  </si>
+  <si>
+    <t xml:space="preserve">화성시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인재개발원</t>
   </si>
   <si>
     <t xml:space="preserve">정</t>
@@ -200,19 +212,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -255,1811 +268,1930 @@
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>16</v>
+      <c r="E2" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I2" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>38.1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
+      <c r="E3" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I3" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>36.4</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
+      <c r="E4" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I4" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>38.8</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
+      <c r="E5" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I5" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>38.9</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
+      <c r="E6" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I6" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>35.9</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
+      <c r="E7" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I7" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>36.5</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
+      <c r="E8" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I8" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>18</v>
+      <c r="E9" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I9" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>36.6</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>18</v>
+      <c r="E10" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I10" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>35.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>19</v>
+      <c r="E12" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I12" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>37.9</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>19</v>
+      <c r="E13" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I13" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>38.6</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>19</v>
+      <c r="E14" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I14" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>39.2</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>19</v>
+      <c r="E15" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I15" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>35.1</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>19</v>
+      <c r="E16" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I16" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>35.9</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>21</v>
+      <c r="E17" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>35.5</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>21</v>
+      <c r="E18" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>21</v>
+      <c r="E19" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>37.4</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>21</v>
+      <c r="E20" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>92</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>92</v>
       </c>
       <c r="M20" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>43891</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>21</v>
+      <c r="E21" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>38.2</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>22</v>
+      <c r="E22" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>37.9</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>22</v>
+      <c r="E23" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>37.6</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>22</v>
+      <c r="E24" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="O24" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>22</v>
+      <c r="E25" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>38.3</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>22</v>
+      <c r="E26" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>35.5</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="O26" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>23</v>
+      <c r="E27" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I27" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="O27" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>23</v>
+      <c r="E28" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I28" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>35.4</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="O28" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>23</v>
+      <c r="E29" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I29" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="O29" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>23</v>
+      <c r="E30" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I30" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>38.8</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="O30" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>23</v>
+      <c r="E31" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I31" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>35.1</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="O31" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>24</v>
+      <c r="E32" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I32" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>39.5</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="O32" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="N33" s="1" t="n">
+      <c r="O33" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>24</v>
+      <c r="E34" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I34" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>36.4</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="N34" s="1" t="n">
+      <c r="N34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>24</v>
+      <c r="E35" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I35" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>96</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>96</v>
       </c>
       <c r="M35" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="O35" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>24</v>
+      <c r="E36" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I36" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>36.4</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="N36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="O36" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>25</v>
+      <c r="E37" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>36.8</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="N37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>43891</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>25</v>
+      <c r="E38" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="I38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>35.3</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="N38" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="O38" s="1" t="n">
         <v>43890</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>25</v>
+      <c r="E39" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="I39" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>35.1</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="N39" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="O39" s="1" t="n">
         <v>43889</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>25</v>
+      <c r="E40" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>37.8</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="M40" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="N40" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="O40" s="1" t="n">
         <v>43888</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>43891</v>
+        <v>24</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>25</v>
+      <c r="E41" s="1" t="n">
+        <v>43891</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>37.7</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="N41" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="O41" s="1" t="n">
         <v>43887</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -24,28 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="45">
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Town</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="46">
   <si>
     <t>경기도</t>
   </si>
@@ -86,79 +65,134 @@
     <t>윤</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>HB</t>
-  </si>
-  <si>
-    <t>DHB</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>HHB</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상발현날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기저질병여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡곤란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심한호흡곤란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴통증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡곤란심화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산소포화도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두근거림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸떨림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복부불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어지러움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감각이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,121 +542,128 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>43891</v>
@@ -631,13 +672,13 @@
         <v>43891</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
         <v>43891</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>41</v>
@@ -711,13 +752,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>43891</v>
@@ -726,13 +767,13 @@
         <v>43891</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <v>43890</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>41</v>
@@ -806,13 +847,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>43891</v>
@@ -821,13 +862,13 @@
         <v>43891</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>43889</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>41</v>
@@ -901,13 +942,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>43891</v>
@@ -916,13 +957,13 @@
         <v>43891</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>43888</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>41</v>
@@ -996,13 +1037,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>43891</v>
@@ -1011,13 +1052,13 @@
         <v>43891</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>43887</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>41</v>
@@ -1091,13 +1132,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>43891</v>
@@ -1106,13 +1147,13 @@
         <v>43891</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
         <v>43891</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>57</v>
@@ -1186,13 +1227,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>43891</v>
@@ -1201,13 +1242,13 @@
         <v>43891</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
         <v>43890</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1">
         <v>57</v>
@@ -1281,13 +1322,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
         <v>43891</v>
@@ -1296,13 +1337,13 @@
         <v>43891</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
         <v>43889</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1">
         <v>57</v>
@@ -1376,13 +1417,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>43891</v>
@@ -1391,13 +1432,13 @@
         <v>43891</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
         <v>43888</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1">
         <v>57</v>
@@ -1471,13 +1512,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>43891</v>
@@ -1486,13 +1527,13 @@
         <v>43891</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
         <v>43887</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1">
         <v>57</v>
@@ -1566,13 +1607,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>43891</v>
@@ -1581,13 +1622,13 @@
         <v>43891</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
         <v>43891</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1">
         <v>54</v>
@@ -1661,13 +1702,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <v>43891</v>
@@ -1676,13 +1717,13 @@
         <v>43891</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
         <v>43890</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1">
         <v>54</v>
@@ -1756,13 +1797,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <v>43891</v>
@@ -1771,13 +1812,13 @@
         <v>43891</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2">
         <v>43889</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
         <v>54</v>
@@ -1851,13 +1892,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
         <v>43891</v>
@@ -1866,13 +1907,13 @@
         <v>43891</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
         <v>43888</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <v>54</v>
@@ -1946,13 +1987,13 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>43891</v>
@@ -1961,13 +2002,13 @@
         <v>43891</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
         <v>43887</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1">
         <v>54</v>
@@ -2041,13 +2082,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>43891</v>
@@ -2056,13 +2097,13 @@
         <v>43891</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>37</v>
@@ -2136,13 +2177,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>43891</v>
@@ -2151,13 +2192,13 @@
         <v>43891</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
         <v>43890</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1">
         <v>37</v>
@@ -2231,13 +2272,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>43891</v>
@@ -2246,13 +2287,13 @@
         <v>43891</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
         <v>43889</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1">
         <v>37</v>
@@ -2326,13 +2367,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <v>43891</v>
@@ -2341,13 +2382,13 @@
         <v>43891</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
         <v>43888</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1">
         <v>37</v>
@@ -2421,13 +2462,13 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>43891</v>
@@ -2436,13 +2477,13 @@
         <v>43891</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
         <v>43887</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1">
         <v>37</v>
@@ -2516,28 +2557,28 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43891</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43891</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43891</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I22" s="1">
         <v>63</v>
@@ -2611,13 +2652,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>43891</v>
@@ -2626,13 +2667,13 @@
         <v>43891</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2">
         <v>43890</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1">
         <v>63</v>
@@ -2706,13 +2747,13 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
         <v>43891</v>
@@ -2721,13 +2762,13 @@
         <v>43891</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
         <v>43889</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1">
         <v>63</v>
@@ -2801,13 +2842,13 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>43891</v>
@@ -2816,13 +2857,13 @@
         <v>43891</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
         <v>43888</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>63</v>
@@ -2896,13 +2937,13 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>43891</v>
@@ -2911,13 +2952,13 @@
         <v>43891</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2">
         <v>43887</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1">
         <v>63</v>
@@ -2991,13 +3032,13 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2">
         <v>43891</v>
@@ -3006,13 +3047,13 @@
         <v>43891</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
         <v>43891</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1">
         <v>52</v>
@@ -3086,13 +3127,13 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2">
         <v>43891</v>
@@ -3101,13 +3142,13 @@
         <v>43891</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>43890</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I28" s="1">
         <v>52</v>
@@ -3181,13 +3222,13 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2">
         <v>43891</v>
@@ -3196,13 +3237,13 @@
         <v>43891</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>43889</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1">
         <v>52</v>
@@ -3276,13 +3317,13 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2">
         <v>43891</v>
@@ -3291,13 +3332,13 @@
         <v>43891</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2">
         <v>43888</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1">
         <v>52</v>
@@ -3371,13 +3412,13 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>43891</v>
@@ -3386,13 +3427,13 @@
         <v>43891</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2">
         <v>43887</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1">
         <v>52</v>
@@ -3466,28 +3507,28 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43891</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43891</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43891</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I32" s="1">
         <v>67</v>
@@ -3561,13 +3602,13 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>43891</v>
@@ -3576,13 +3617,13 @@
         <v>43891</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2">
         <v>43890</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1">
         <v>67</v>
@@ -3656,13 +3697,13 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2">
         <v>43891</v>
@@ -3671,13 +3712,13 @@
         <v>43891</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2">
         <v>43889</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1">
         <v>67</v>
@@ -3751,13 +3792,13 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>43891</v>
@@ -3766,13 +3807,13 @@
         <v>43891</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2">
         <v>43888</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1">
         <v>67</v>
@@ -3846,13 +3887,13 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2">
         <v>43891</v>
@@ -3861,13 +3902,13 @@
         <v>43891</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2">
         <v>43887</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1">
         <v>67</v>
@@ -3941,28 +3982,28 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43891</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43891</v>
-      </c>
-      <c r="E37" s="2">
-        <v>43891</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I37" s="1">
         <v>42</v>
@@ -4036,13 +4077,13 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2">
         <v>43891</v>
@@ -4051,13 +4092,13 @@
         <v>43891</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2">
         <v>43890</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1">
         <v>42</v>
@@ -4131,13 +4172,13 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>43891</v>
@@ -4146,13 +4187,13 @@
         <v>43891</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
         <v>43889</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1">
         <v>42</v>
@@ -4226,13 +4267,13 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
         <v>43891</v>
@@ -4241,13 +4282,13 @@
         <v>43891</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2">
         <v>43888</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I40" s="1">
         <v>42</v>
@@ -4321,13 +4362,13 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2">
         <v>43891</v>
@@ -4336,13 +4377,13 @@
         <v>43891</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2">
         <v>43887</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1">
         <v>42</v>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R19"/>
+      <selection activeCell="L2" sqref="L2:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,9 +738,15 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="7">
+        <v>95.8</v>
+      </c>
+      <c r="M2" s="7">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7">
+        <v>92</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7">
@@ -797,9 +803,15 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="7">
+        <v>96.9</v>
+      </c>
+      <c r="M3" s="7">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7">
+        <v>118</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7">
@@ -856,9 +868,15 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="7">
+        <v>100</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>119</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7">
@@ -915,9 +933,15 @@
       <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="L5" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="M5" s="7">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7">
+        <v>103</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7">
@@ -974,9 +998,15 @@
       <c r="K6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="L6" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7">
+        <v>115</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7">
@@ -1033,9 +1063,15 @@
       <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>109</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7">
@@ -1092,9 +1128,15 @@
       <c r="K8" s="7">
         <v>2</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="7">
+        <v>99.3</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7">
+        <v>116</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7">
@@ -1151,9 +1193,15 @@
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="7">
+        <v>95.8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>13</v>
+      </c>
+      <c r="N9" s="7">
+        <v>109</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7">
@@ -1210,9 +1258,15 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="7">
+        <v>99.3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>100</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7">
@@ -1269,9 +1323,15 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="7">
+        <v>98.1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7">
+        <v>90</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7">
@@ -1328,9 +1388,15 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="M12" s="7">
+        <v>17</v>
+      </c>
+      <c r="N12" s="7">
+        <v>118</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7">
@@ -1387,9 +1453,15 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="L13" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>117</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -1446,9 +1518,15 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="L14" s="7">
+        <v>96.3</v>
+      </c>
+      <c r="M14" s="7">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>102</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7">
@@ -1503,9 +1581,15 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="7">
+        <v>97.8</v>
+      </c>
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7">
+        <v>98</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7">
@@ -1560,9 +1644,15 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="L16" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>117</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7">
@@ -1619,9 +1709,15 @@
       <c r="K17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="L17" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
+        <v>95</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7">
@@ -1678,9 +1774,15 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="L18" s="7">
+        <v>97.8</v>
+      </c>
+      <c r="M18" s="7">
+        <v>15</v>
+      </c>
+      <c r="N18" s="7">
+        <v>110</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7">
@@ -1737,9 +1839,15 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="L19" s="7">
+        <v>97.4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7">
+        <v>112</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
